--- a/lesson.xlsx
+++ b/lesson.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moxianbin/git/study-service-pro/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moxianbin/git/study-service-pro/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="117">
   <si>
     <t>lessonId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,59 +59,443 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>159dea8fd0154238bafefb3c3ba24efb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b07db79c91e44f2ebe65c61de91e0a94</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32ef3849c6c6437b9f106f834f5c636e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4a0b083455b44da08104686aba4e8fb3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6f6fafe6dfdf498b95567c8ac9379122</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>812df88f3d2e407fa156e011cccf2850</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77703d3582724698be7077249bf95871</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8ad30b284e6248e0866425feb7dd18cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国邮政储蓄银行理财产品销售从业人员资格第一期考试远程培训</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8a8a834067159f62016716591ff101ec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c201911381</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c201911381</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019lcjl1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019lcjl1</t>
+    <t>2019年福建邮政代理金融柜面合规操作及服务规范远程培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a8a82bd68118f260169322f27c813cf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9adee476082145468dd0e836f15e7bac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c201911551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a8a82bd68118f260169322f27c813cf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8ce6d9acc2f84e23a78ab827185eb856</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a33786c09fe343f0a3ff5b95fa1b3d22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a8a82bd68118f26016932268f5b13a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e430ba33e64f4e669bb754efde831fdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>513df5cd27c64674977ff6d5b34e8a9c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a8a82bd68118f26016932268f5b13a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3ccb465943834e1ba5d6dc47e3d06e53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a8a82bd68118f26016932268f5b13a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d8a64e84122642ecae473bd72587a9c5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a8a82bd68118f26016932268f5b13a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c201911551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a8a82bd68118f260169322ff90413e4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d8198f406c7c44b4ba2121af39e46a7f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c201911551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c01d99df6a8b4032b7593ba8053d9722</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a8a82bd68118f260169322ff90413e4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b14e484710ae40e180533bc98e0f5a6f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a8a82bd68118f2601693230951213f9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c201911551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ba5ba2984c704473a40ffbbd2eda20ac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a8a82bd68118f2601693230951213f9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>371800df59f64af3bb2162259b3fe146</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a8a82bd68118f2601693334477b1675</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1b7ce09fb08b4c219c0f2964ac03ffc3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb877e59af0348deb2cd8e43ba4ca71f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ec9172a6da89438e89cc2b976f7d9820</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e4afdb3f497b41d08becad94632405bf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df5e697ff9084654a979f8d2243e0806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8428b06b0a2546c697c73974acc8680e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a8a82bd68118f26016933333b5e165a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9ae5a107eb364c98b436fa1266adad9c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd5905a92b4f4169a2198d3e4f0374ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd7e53b49e054762874c753ebe3620fd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d2e82f8201c341feabe7c42a484527b0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>de9970e150cb4f6884427dd64547774f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a9713c603b41422ab3b9d9d44794b55e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8811e74908fd436ab003000d878ee1fc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1dc78f8edb0143d081bc63dcf5c69e7a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0152adf9b044400b9750caa046f36554</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6371801abab74c1f920d30d0c6552864</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7dead3fd02bd4cb19fb20fd383e31851</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e7ebef5da9c6490b90968040651a2803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>af061acbe07c4f148e7856045d74983b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9720da482bf04ab79dc41c6e62df13a0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a8a82bd68118f260169332bfb431645</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b62b6dd5431446cd8add96088924b329</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d62d007882d499998fea6b584cd66a7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e75068f78e4f40d69b6b198c29f34bb9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450fe32f567a446ca8fe3c498236a5f7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e7a672205bec439387912c9da454f167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10b5d71fd0ab4bcab5da6b8ed5eecbb8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8b106e27100a4517bd101992cfbe2a07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac924ebc13ca4d4ea8b4d38cd1f65741</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc9d8099bc9847d684b3a3a622d7be55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a8a82bd68118f2601693337e168169f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62c0e29bfed64c598a1662c48e4ccf6f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d699ade8737a4c45b9dec2549562d35b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74fa62c295de499aa46944e25d36b9dc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d8b97211f18d419d8acf6ee15cc46917</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d799e1143ac4ec1afc72266428c6dbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9c07dfd01e63436d93d6d16f93330303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7cb2ea20da1e4896822beffc8477b0fd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68175e8c89f54869909680a6f171ac61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a8a82bd68118f260169333749e3168a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f82557fa5d4744e3897e3a53abf2fd90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6739b7a0cecf403991d26295e53b133a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>238880bfe28a4939b8221be1225f6578</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8d2c0c5633314866a056942352f366ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b650349196274343a8262110300e2c2c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a8a82bd68118f260169322de03e13ba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ab1fcffed7174577a848198dc5f79e96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c201911372</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a8a83406786a8ad01678bf930a60b2c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5f9432af6eb0489e90724524cf3c1888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a8a83406786a8ad01678bf930a60b2c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401c87df10c44bd58da3a8b3fa358a0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f94b69d1755f4b478b00f36b5c1349e2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5d329b86d9fe47889a57e0902d718951</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b71161fd222342bbbde32cc02bff9a12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019年“大公司板块”公司条线人员远程培训班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74d2a9dd5ec14c87adf7e10b538abf23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a8a83406786a8ad01678bfaa8620b63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1c075bfc8ee64d0db471265155ad768c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9a15aa0c21944ffb85408bb71f4829b1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3f9e49e2386b4ab99a072d51d3f10e7d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2e3cd81d1c33415aae54cc6335ac029e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a8a83406786a8ad01678bfbb77d0b6e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33e7e9314aaf4753a376bf7b3e7a235f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>063251a800984cd29ac4ffa9a6a2c09f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a50c6786a99845b1a4c9787c043aaf45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1b410626ab0041f2bd1f8ff7535bd1de</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd4023b780564d24a449eb7e75e3d141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f2f17d5a3e0649c7a0672ba3f54b9f03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a8a83406786a8ad01678c0aceba0b8f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f5ecbc858c9f4bf883d7ed391b3b7850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf9c84b5bcc2463799d5bc0bd4a9ad8e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37a6a21de08d4e4689136ae558269830</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a8a83406796d57d01679c8aee2809cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9de4d12277e54a3798030085d05ef6ea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7cfe3d0c7e0e4aad833de94a92899f1c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7f37bb1702014543a082f7e2a60eaad5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55334f599e97445e9eaa4c967e73b78f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa41f7904fcb4350ad3ba8e74134878c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b21a608a74844bbfb44b08b0eddace4d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d179db5dab0b4586b14039bffe88be53</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,6 +523,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -147,6 +532,7 @@
       <sz val="11"/>
       <color theme="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -179,11 +565,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -466,310 +849,1600 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>8</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>8</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>8</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>8</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>6</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>7</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>7</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>6</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>7</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>6</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>8</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>4</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>10</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>8</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>5</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>10</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>8</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>11</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>5</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>13</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>7</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>9</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>9</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>6</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>11</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>7</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2">
+        <v>11</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
+        <v>4</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2">
+        <v>14</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="2">
+        <v>22</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="2">
+        <v>3</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="2">
+        <v>24</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="2">
+        <v>6</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="2">
+        <v>22</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="2">
+        <v>17</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="2">
+        <v>11</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="2">
+        <v>22</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" s="2">
+        <v>8</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" s="2">
+        <v>12</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="2">
+        <v>12</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68" s="2">
+        <v>20</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E69" s="2">
+        <v>6</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" s="2">
+        <v>4</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E71" s="2">
+        <v>3</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72" s="2">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F72" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E73" s="2">
+        <v>4</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" s="2">
+        <v>11</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" s="2">
+        <v>6</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E76" s="2">
+        <v>7</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" s="2">
+        <v>25</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E78" s="2">
+        <v>14</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E79" s="2">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>16</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>19</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>20</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37"/>
+      <c r="F79" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E80" s="2">
+        <v>21</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E81" s="2">
+        <v>7</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E82" s="2">
+        <v>4</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B83" s="2"/>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B87" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
